--- a/中信.xlsx
+++ b/中信.xlsx
@@ -110,16 +110,16 @@
     <t>100000000000895</t>
   </si>
   <si>
-    <t>4692-68-95</t>
+    <t>2518-53-16</t>
   </si>
   <si>
     <t>常振明</t>
   </si>
   <si>
-    <t>9724-67-91</t>
-  </si>
-  <si>
-    <t>46139980.531763 夫元</t>
+    <t>1982-59-10</t>
+  </si>
+  <si>
+    <t>25071134.670957 分元</t>
   </si>
   <si>
     <t>010-59668723</t>
